--- a/GiaDat_HuongHoa_Streamlit.xlsx
+++ b/GiaDat_HuongHoa_Streamlit.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12.Github\HO\QD 04_Sua doi bo sung QD49 gia dat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\12.Github\gia-dat-huong-hoa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B37204F-3934-4960-9C20-D44E9C8FCA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E22A63-9217-4B76-B3F4-A409A5E1E41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,18 @@
     <sheet name="B2.1 XMN" sheetId="4" r:id="rId5"/>
     <sheet name="B2.2 QL9 HCM" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1310,7 +1321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1343,6 +1354,9 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1362,9 +1376,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1402,9 +1416,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1437,9 +1451,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1472,9 +1503,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1948,15 +1996,15 @@
       </c>
       <c r="F10" s="11">
         <f>VLOOKUP(D10,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>980000000</v>
+        <v>980000</v>
       </c>
       <c r="G10" s="11">
         <f>VLOOKUP(D10,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>728000000</v>
+        <v>728000</v>
       </c>
       <c r="H10" s="11">
         <f>VLOOKUP(D10,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>560000000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1978,15 +2026,15 @@
       </c>
       <c r="F11" s="11">
         <f>VLOOKUP(D11,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>980000000</v>
+        <v>980000</v>
       </c>
       <c r="G11" s="11">
         <f>VLOOKUP(D11,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>728000000</v>
+        <v>728000</v>
       </c>
       <c r="H11" s="11">
         <f>VLOOKUP(D11,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>560000000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2008,15 +2056,15 @@
       </c>
       <c r="F12" s="11">
         <f>VLOOKUP(D12,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>980000000</v>
+        <v>980000</v>
       </c>
       <c r="G12" s="11">
         <f>VLOOKUP(D12,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>728000000</v>
+        <v>728000</v>
       </c>
       <c r="H12" s="11">
         <f>VLOOKUP(D12,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>560000000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2038,15 +2086,15 @@
       </c>
       <c r="F13" s="11">
         <f>VLOOKUP(D13,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G13" s="11">
         <f>VLOOKUP(D13,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H13" s="11">
         <f>VLOOKUP(D13,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2068,15 +2116,15 @@
       </c>
       <c r="F14" s="11">
         <f>VLOOKUP(D14,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G14" s="11">
         <f>VLOOKUP(D14,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H14" s="11">
         <f>VLOOKUP(D14,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2128,15 +2176,15 @@
       </c>
       <c r="F16" s="11">
         <f>VLOOKUP(D16,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G16" s="11">
         <f>VLOOKUP(D16,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H16" s="11">
         <f>VLOOKUP(D16,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2158,15 +2206,15 @@
       </c>
       <c r="F17" s="11">
         <f>VLOOKUP(D17,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G17" s="11">
         <f>VLOOKUP(D17,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H17" s="11">
         <f>VLOOKUP(D17,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2196,7 +2244,7 @@
       </c>
       <c r="H18" s="11">
         <f>VLOOKUP(D18,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>840000000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2218,15 +2266,15 @@
       </c>
       <c r="F19" s="11">
         <f>VLOOKUP(D19,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G19" s="11">
         <f>VLOOKUP(D19,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H19" s="11">
         <f>VLOOKUP(D19,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2274,19 +2322,19 @@
       </c>
       <c r="E21" s="11">
         <f>VLOOKUP(D21,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F21" s="11">
         <f>VLOOKUP(D21,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G21" s="11">
         <f>VLOOKUP(D21,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H21" s="11">
         <f>VLOOKUP(D21,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2304,19 +2352,19 @@
       </c>
       <c r="E22" s="11">
         <f>VLOOKUP(D22,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F22" s="11">
         <f>VLOOKUP(D22,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G22" s="11">
         <f>VLOOKUP(D22,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H22" s="11">
         <f>VLOOKUP(D22,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2372,11 +2420,11 @@
       </c>
       <c r="G24" s="11">
         <f>VLOOKUP(D24,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>910000000</v>
+        <v>910000</v>
       </c>
       <c r="H24" s="11">
         <f>VLOOKUP(D24,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2398,15 +2446,15 @@
       </c>
       <c r="F25" s="11">
         <f>VLOOKUP(D25,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G25" s="11">
         <f>VLOOKUP(D25,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H25" s="11">
         <f>VLOOKUP(D25,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2428,15 +2476,15 @@
       </c>
       <c r="F26" s="11">
         <f>VLOOKUP(D26,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>980000000</v>
+        <v>980000</v>
       </c>
       <c r="G26" s="11">
         <f>VLOOKUP(D26,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>728000000</v>
+        <v>728000</v>
       </c>
       <c r="H26" s="11">
         <f>VLOOKUP(D26,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>560000000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2454,19 +2502,19 @@
       </c>
       <c r="E27" s="11">
         <f>VLOOKUP(D27,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>550000000</v>
+        <v>550000</v>
       </c>
       <c r="F27" s="11">
         <f>VLOOKUP(D27,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>193000000</v>
+        <v>193000</v>
       </c>
       <c r="G27" s="11">
         <f>VLOOKUP(D27,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>143000000</v>
+        <v>143000</v>
       </c>
       <c r="H27" s="11">
         <f>VLOOKUP(D27,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>110000000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2484,19 +2532,19 @@
       </c>
       <c r="E28" s="11">
         <f>VLOOKUP(D28,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>550000000</v>
+        <v>550000</v>
       </c>
       <c r="F28" s="11">
         <f>VLOOKUP(D28,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>193000000</v>
+        <v>193000</v>
       </c>
       <c r="G28" s="11">
         <f>VLOOKUP(D28,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>143000000</v>
+        <v>143000</v>
       </c>
       <c r="H28" s="11">
         <f>VLOOKUP(D28,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>110000000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2518,15 +2566,15 @@
       </c>
       <c r="F29" s="11">
         <f>VLOOKUP(D29,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>980000000</v>
+        <v>980000</v>
       </c>
       <c r="G29" s="11">
         <f>VLOOKUP(D29,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>728000000</v>
+        <v>728000</v>
       </c>
       <c r="H29" s="11">
         <f>VLOOKUP(D29,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>560000000</v>
+        <v>560000</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2548,15 +2596,15 @@
       </c>
       <c r="F30" s="11">
         <f>VLOOKUP(D30,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G30" s="11">
         <f>VLOOKUP(D30,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H30" s="11">
         <f>VLOOKUP(D30,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2578,15 +2626,15 @@
       </c>
       <c r="F31" s="11">
         <f>VLOOKUP(D31,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G31" s="11">
         <f>VLOOKUP(D31,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H31" s="11">
         <f>VLOOKUP(D31,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2608,15 +2656,15 @@
       </c>
       <c r="F32" s="11">
         <f>VLOOKUP(D32,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G32" s="11">
         <f>VLOOKUP(D32,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H32" s="11">
         <f>VLOOKUP(D32,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2638,15 +2686,15 @@
       </c>
       <c r="F33" s="11">
         <f>VLOOKUP(D33,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G33" s="11">
         <f>VLOOKUP(D33,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H33" s="11">
         <f>VLOOKUP(D33,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2668,15 +2716,15 @@
       </c>
       <c r="F34" s="11">
         <f>VLOOKUP(D34,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G34" s="11">
         <f>VLOOKUP(D34,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H34" s="11">
         <f>VLOOKUP(D34,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2698,15 +2746,15 @@
       </c>
       <c r="F35" s="11">
         <f>VLOOKUP(D35,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G35" s="11">
         <f>VLOOKUP(D35,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H35" s="11">
         <f>VLOOKUP(D35,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2728,15 +2776,15 @@
       </c>
       <c r="F36" s="11">
         <f>VLOOKUP(D36,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>875000000</v>
+        <v>875000</v>
       </c>
       <c r="G36" s="11">
         <f>VLOOKUP(D36,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="H36" s="11">
         <f>VLOOKUP(D36,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>500000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2754,19 +2802,19 @@
       </c>
       <c r="E37" s="11">
         <f>VLOOKUP(D37,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F37" s="11">
         <f>VLOOKUP(D37,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G37" s="11">
         <f>VLOOKUP(D37,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H37" s="11">
         <f>VLOOKUP(D37,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2784,19 +2832,19 @@
       </c>
       <c r="E38" s="11">
         <f>VLOOKUP(D38,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F38" s="11">
         <f>VLOOKUP(D38,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G38" s="11">
         <f>VLOOKUP(D38,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H38" s="11">
         <f>VLOOKUP(D38,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2818,15 +2866,15 @@
       </c>
       <c r="F39" s="11">
         <f>VLOOKUP(D39,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>875000000</v>
+        <v>875000</v>
       </c>
       <c r="G39" s="11">
         <f>VLOOKUP(D39,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="H39" s="11">
         <f>VLOOKUP(D39,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>500000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2848,15 +2896,15 @@
       </c>
       <c r="F40" s="11">
         <f>VLOOKUP(D40,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>875000000</v>
+        <v>875000</v>
       </c>
       <c r="G40" s="11">
         <f>VLOOKUP(D40,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="H40" s="11">
         <f>VLOOKUP(D40,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>500000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2878,15 +2926,15 @@
       </c>
       <c r="F41" s="11">
         <f>VLOOKUP(D41,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G41" s="11">
         <f>VLOOKUP(D41,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H41" s="11">
         <f>VLOOKUP(D41,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2908,15 +2956,15 @@
       </c>
       <c r="F42" s="11">
         <f>VLOOKUP(D42,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G42" s="11">
         <f>VLOOKUP(D42,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H42" s="11">
         <f>VLOOKUP(D42,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2938,15 +2986,15 @@
       </c>
       <c r="F43" s="11">
         <f>VLOOKUP(D43,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G43" s="11">
         <f>VLOOKUP(D43,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H43" s="11">
         <f>VLOOKUP(D43,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2968,15 +3016,15 @@
       </c>
       <c r="F44" s="11">
         <f>VLOOKUP(D44,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G44" s="11">
         <f>VLOOKUP(D44,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H44" s="11">
         <f>VLOOKUP(D44,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2994,19 +3042,19 @@
       </c>
       <c r="E45" s="11">
         <f>VLOOKUP(D45,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F45" s="11">
         <f>VLOOKUP(D45,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G45" s="11">
         <f>VLOOKUP(D45,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H45" s="11">
         <f>VLOOKUP(D45,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3024,19 +3072,19 @@
       </c>
       <c r="E46" s="11">
         <f>VLOOKUP(D46,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F46" s="11">
         <f>VLOOKUP(D46,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G46" s="11">
         <f>VLOOKUP(D46,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H46" s="11">
         <f>VLOOKUP(D46,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3058,15 +3106,15 @@
       </c>
       <c r="F47" s="11">
         <f>VLOOKUP(D47,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G47" s="11">
         <f>VLOOKUP(D47,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H47" s="11">
         <f>VLOOKUP(D47,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3084,19 +3132,19 @@
       </c>
       <c r="E48" s="11">
         <f>VLOOKUP(D48,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F48" s="11">
         <f>VLOOKUP(D48,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G48" s="11">
         <f>VLOOKUP(D48,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H48" s="11">
         <f>VLOOKUP(D48,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3114,19 +3162,19 @@
       </c>
       <c r="E49" s="11">
         <f>VLOOKUP(D49,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F49" s="11">
         <f>VLOOKUP(D49,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G49" s="11">
         <f>VLOOKUP(D49,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H49" s="11">
         <f>VLOOKUP(D49,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3148,15 +3196,15 @@
       </c>
       <c r="F50" s="11">
         <f>VLOOKUP(D50,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G50" s="11">
         <f>VLOOKUP(D50,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H50" s="11">
         <f>VLOOKUP(D50,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3174,19 +3222,19 @@
       </c>
       <c r="E51" s="11">
         <f>VLOOKUP(D51,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F51" s="11">
         <f>VLOOKUP(D51,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G51" s="11">
         <f>VLOOKUP(D51,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H51" s="11">
         <f>VLOOKUP(D51,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3208,15 +3256,15 @@
       </c>
       <c r="F52" s="11">
         <f>VLOOKUP(D52,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G52" s="11">
         <f>VLOOKUP(D52,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H52" s="11">
         <f>VLOOKUP(D52,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3234,19 +3282,19 @@
       </c>
       <c r="E53" s="11">
         <f>VLOOKUP(D53,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F53" s="11">
         <f>VLOOKUP(D53,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G53" s="11">
         <f>VLOOKUP(D53,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H53" s="11">
         <f>VLOOKUP(D53,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3264,19 +3312,19 @@
       </c>
       <c r="E54" s="11">
         <f>VLOOKUP(D54,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F54" s="11">
         <f>VLOOKUP(D54,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G54" s="11">
         <f>VLOOKUP(D54,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H54" s="11">
         <f>VLOOKUP(D54,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3298,15 +3346,15 @@
       </c>
       <c r="F55" s="11">
         <f>VLOOKUP(D55,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>735000000</v>
+        <v>735000</v>
       </c>
       <c r="G55" s="11">
         <f>VLOOKUP(D55,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>546000000</v>
+        <v>546000</v>
       </c>
       <c r="H55" s="11">
         <f>VLOOKUP(D55,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3328,15 +3376,15 @@
       </c>
       <c r="F56" s="11">
         <f>VLOOKUP(D56,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G56" s="11">
         <f>VLOOKUP(D56,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H56" s="11">
         <f>VLOOKUP(D56,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3358,15 +3406,15 @@
       </c>
       <c r="F57" s="11">
         <f>VLOOKUP(D57,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G57" s="11">
         <f>VLOOKUP(D57,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H57" s="11">
         <f>VLOOKUP(D57,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3388,15 +3436,15 @@
       </c>
       <c r="F58" s="11">
         <f>VLOOKUP(D58,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G58" s="11">
         <f>VLOOKUP(D58,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H58" s="11">
         <f>VLOOKUP(D58,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3418,15 +3466,15 @@
       </c>
       <c r="F59" s="11">
         <f>VLOOKUP(D59,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G59" s="11">
         <f>VLOOKUP(D59,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H59" s="11">
         <f>VLOOKUP(D59,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3444,19 +3492,19 @@
       </c>
       <c r="E60" s="11">
         <f>VLOOKUP(D60,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F60" s="11">
         <f>VLOOKUP(D60,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G60" s="11">
         <f>VLOOKUP(D60,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H60" s="11">
         <f>VLOOKUP(D60,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3474,19 +3522,19 @@
       </c>
       <c r="E61" s="11">
         <f>VLOOKUP(D61,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F61" s="11">
         <f>VLOOKUP(D61,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G61" s="11">
         <f>VLOOKUP(D61,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H61" s="11">
         <f>VLOOKUP(D61,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3508,15 +3556,15 @@
       </c>
       <c r="F62" s="11">
         <f>VLOOKUP(D62,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G62" s="11">
         <f>VLOOKUP(D62,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H62" s="11">
         <f>VLOOKUP(D62,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3538,15 +3586,15 @@
       </c>
       <c r="F63" s="11">
         <f>VLOOKUP(D63,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G63" s="11">
         <f>VLOOKUP(D63,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H63" s="11">
         <f>VLOOKUP(D63,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3568,15 +3616,15 @@
       </c>
       <c r="F64" s="11">
         <f>VLOOKUP(D64,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G64" s="11">
         <f>VLOOKUP(D64,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H64" s="11">
         <f>VLOOKUP(D64,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3598,15 +3646,15 @@
       </c>
       <c r="F65" s="11">
         <f>VLOOKUP(D65,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G65" s="11">
         <f>VLOOKUP(D65,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H65" s="11">
         <f>VLOOKUP(D65,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3624,19 +3672,19 @@
       </c>
       <c r="E66" s="11">
         <f>VLOOKUP(D66,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
       <c r="F66" s="11">
         <f>VLOOKUP(D66,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>245000000</v>
+        <v>245000</v>
       </c>
       <c r="G66" s="11">
         <f>VLOOKUP(D66,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>182000000</v>
+        <v>182000</v>
       </c>
       <c r="H66" s="11">
         <f>VLOOKUP(D66,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>140000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3658,15 +3706,15 @@
       </c>
       <c r="F67" s="11">
         <f>VLOOKUP(D67,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G67" s="11">
         <f>VLOOKUP(D67,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H67" s="11">
         <f>VLOOKUP(D67,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3688,15 +3736,15 @@
       </c>
       <c r="F68" s="11">
         <f>VLOOKUP(D68,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G68" s="11">
         <f>VLOOKUP(D68,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H68" s="11">
         <f>VLOOKUP(D68,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3714,19 +3762,19 @@
       </c>
       <c r="E69" s="11">
         <f>VLOOKUP(D69,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F69" s="11">
         <f>VLOOKUP(D69,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G69" s="11">
         <f>VLOOKUP(D69,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H69" s="11">
         <f>VLOOKUP(D69,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3748,15 +3796,15 @@
       </c>
       <c r="F70" s="11">
         <f>VLOOKUP(D70,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G70" s="11">
         <f>VLOOKUP(D70,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H70" s="11">
         <f>VLOOKUP(D70,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3778,15 +3826,15 @@
       </c>
       <c r="F71" s="11">
         <f>VLOOKUP(D71,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G71" s="11">
         <f>VLOOKUP(D71,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H71" s="11">
         <f>VLOOKUP(D71,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3804,19 +3852,19 @@
       </c>
       <c r="E72" s="11">
         <f>VLOOKUP(D72,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>550000000</v>
+        <v>550000</v>
       </c>
       <c r="F72" s="11">
         <f>VLOOKUP(D72,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>193000000</v>
+        <v>193000</v>
       </c>
       <c r="G72" s="11">
         <f>VLOOKUP(D72,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>143000000</v>
+        <v>143000</v>
       </c>
       <c r="H72" s="11">
         <f>VLOOKUP(D72,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>110000000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3834,19 +3882,19 @@
       </c>
       <c r="E73" s="11">
         <f>VLOOKUP(D73,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>550000000</v>
+        <v>550000</v>
       </c>
       <c r="F73" s="11">
         <f>VLOOKUP(D73,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>193000000</v>
+        <v>193000</v>
       </c>
       <c r="G73" s="11">
         <f>VLOOKUP(D73,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>143000000</v>
+        <v>143000</v>
       </c>
       <c r="H73" s="11">
         <f>VLOOKUP(D73,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>110000000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3868,15 +3916,15 @@
       </c>
       <c r="F74" s="11">
         <f>VLOOKUP(D74,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G74" s="11">
         <f>VLOOKUP(D74,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H74" s="11">
         <f>VLOOKUP(D74,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3898,15 +3946,15 @@
       </c>
       <c r="F75" s="11">
         <f>VLOOKUP(D75,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G75" s="11">
         <f>VLOOKUP(D75,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H75" s="11">
         <f>VLOOKUP(D75,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3924,19 +3972,19 @@
       </c>
       <c r="E76" s="11">
         <f>VLOOKUP(D76,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F76" s="11">
         <f>VLOOKUP(D76,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G76" s="11">
         <f>VLOOKUP(D76,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H76" s="11">
         <f>VLOOKUP(D76,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3954,19 +4002,19 @@
       </c>
       <c r="E77" s="11">
         <f>VLOOKUP(D77,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F77" s="11">
         <f>VLOOKUP(D77,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G77" s="11">
         <f>VLOOKUP(D77,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H77" s="11">
         <f>VLOOKUP(D77,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3988,15 +4036,15 @@
       </c>
       <c r="F78" s="11">
         <f>VLOOKUP(D78,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G78" s="11">
         <f>VLOOKUP(D78,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H78" s="11">
         <f>VLOOKUP(D78,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4018,15 +4066,15 @@
       </c>
       <c r="F79" s="11">
         <f>VLOOKUP(D79,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G79" s="11">
         <f>VLOOKUP(D79,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H79" s="11">
         <f>VLOOKUP(D79,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4048,15 +4096,15 @@
       </c>
       <c r="F80" s="11">
         <f>VLOOKUP(D80,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G80" s="11">
         <f>VLOOKUP(D80,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H80" s="11">
         <f>VLOOKUP(D80,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4078,15 +4126,15 @@
       </c>
       <c r="F81" s="11">
         <f>VLOOKUP(D81,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G81" s="11">
         <f>VLOOKUP(D81,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H81" s="11">
         <f>VLOOKUP(D81,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4104,19 +4152,19 @@
       </c>
       <c r="E82" s="11">
         <f>VLOOKUP(D82,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F82" s="11">
         <f>VLOOKUP(D82,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G82" s="11">
         <f>VLOOKUP(D82,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H82" s="11">
         <f>VLOOKUP(D82,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4134,19 +4182,19 @@
       </c>
       <c r="E83" s="11">
         <f>VLOOKUP(D83,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F83" s="11">
         <f>VLOOKUP(D83,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G83" s="11">
         <f>VLOOKUP(D83,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H83" s="11">
         <f>VLOOKUP(D83,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4168,15 +4216,15 @@
       </c>
       <c r="F84" s="11">
         <f>VLOOKUP(D84,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G84" s="11">
         <f>VLOOKUP(D84,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H84" s="11">
         <f>VLOOKUP(D84,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4194,19 +4242,19 @@
       </c>
       <c r="E85" s="11">
         <f>VLOOKUP(D85,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
       <c r="F85" s="11">
         <f>VLOOKUP(D85,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>245000000</v>
+        <v>245000</v>
       </c>
       <c r="G85" s="11">
         <f>VLOOKUP(D85,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>182000000</v>
+        <v>182000</v>
       </c>
       <c r="H85" s="11">
         <f>VLOOKUP(D85,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>140000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4228,15 +4276,15 @@
       </c>
       <c r="F86" s="11">
         <f>VLOOKUP(D86,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G86" s="11">
         <f>VLOOKUP(D86,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H86" s="11">
         <f>VLOOKUP(D86,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4254,19 +4302,19 @@
       </c>
       <c r="E87" s="11">
         <f>VLOOKUP(D87,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F87" s="11">
         <f>VLOOKUP(D87,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G87" s="11">
         <f>VLOOKUP(D87,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H87" s="11">
         <f>VLOOKUP(D87,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4284,19 +4332,19 @@
       </c>
       <c r="E88" s="11">
         <f>VLOOKUP(D88,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F88" s="11">
         <f>VLOOKUP(D88,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G88" s="11">
         <f>VLOOKUP(D88,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H88" s="11">
         <f>VLOOKUP(D88,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4314,19 +4362,19 @@
       </c>
       <c r="E89" s="11">
         <f>VLOOKUP(D89,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F89" s="11">
         <f>VLOOKUP(D89,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G89" s="11">
         <f>VLOOKUP(D89,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H89" s="11">
         <f>VLOOKUP(D89,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4344,19 +4392,19 @@
       </c>
       <c r="E90" s="11">
         <f>VLOOKUP(D90,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F90" s="11">
         <f>VLOOKUP(D90,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G90" s="11">
         <f>VLOOKUP(D90,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H90" s="11">
         <f>VLOOKUP(D90,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4374,19 +4422,19 @@
       </c>
       <c r="E91" s="11">
         <f>VLOOKUP(D91,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F91" s="11">
         <f>VLOOKUP(D91,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G91" s="11">
         <f>VLOOKUP(D91,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H91" s="11">
         <f>VLOOKUP(D91,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4404,19 +4452,19 @@
       </c>
       <c r="E92" s="11">
         <f>VLOOKUP(D92,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F92" s="11">
         <f>VLOOKUP(D92,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G92" s="11">
         <f>VLOOKUP(D92,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H92" s="11">
         <f>VLOOKUP(D92,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4434,19 +4482,19 @@
       </c>
       <c r="E93" s="11">
         <f>VLOOKUP(D93,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F93" s="11">
         <f>VLOOKUP(D93,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G93" s="11">
         <f>VLOOKUP(D93,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H93" s="11">
         <f>VLOOKUP(D93,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4464,19 +4512,19 @@
       </c>
       <c r="E94" s="11">
         <f>VLOOKUP(D94,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F94" s="11">
         <f>VLOOKUP(D94,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G94" s="11">
         <f>VLOOKUP(D94,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H94" s="11">
         <f>VLOOKUP(D94,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4494,19 +4542,19 @@
       </c>
       <c r="E95" s="11">
         <f>VLOOKUP(D95,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F95" s="11">
         <f>VLOOKUP(D95,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G95" s="11">
         <f>VLOOKUP(D95,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H95" s="11">
         <f>VLOOKUP(D95,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4524,19 +4572,19 @@
       </c>
       <c r="E96" s="11">
         <f>VLOOKUP(D96,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F96" s="11">
         <f>VLOOKUP(D96,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G96" s="11">
         <f>VLOOKUP(D96,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H96" s="11">
         <f>VLOOKUP(D96,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4554,19 +4602,19 @@
       </c>
       <c r="E97" s="11">
         <f>VLOOKUP(D97,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F97" s="11">
         <f>VLOOKUP(D97,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G97" s="11">
         <f>VLOOKUP(D97,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H97" s="11">
         <f>VLOOKUP(D97,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4584,19 +4632,19 @@
       </c>
       <c r="E98" s="11">
         <f>VLOOKUP(D98,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F98" s="11">
         <f>VLOOKUP(D98,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G98" s="11">
         <f>VLOOKUP(D98,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H98" s="11">
         <f>VLOOKUP(D98,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4614,19 +4662,19 @@
       </c>
       <c r="E99" s="11">
         <f>VLOOKUP(D99,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F99" s="11">
         <f>VLOOKUP(D99,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G99" s="11">
         <f>VLOOKUP(D99,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H99" s="11">
         <f>VLOOKUP(D99,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4644,19 +4692,19 @@
       </c>
       <c r="E100" s="11">
         <f>VLOOKUP(D100,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
       <c r="F100" s="11">
         <f>VLOOKUP(D100,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>245000000</v>
+        <v>245000</v>
       </c>
       <c r="G100" s="11">
         <f>VLOOKUP(D100,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>182000000</v>
+        <v>182000</v>
       </c>
       <c r="H100" s="11">
         <f>VLOOKUP(D100,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>140000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4674,19 +4722,19 @@
       </c>
       <c r="E101" s="11">
         <f>VLOOKUP(D101,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
       <c r="F101" s="11">
         <f>VLOOKUP(D101,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>245000000</v>
+        <v>245000</v>
       </c>
       <c r="G101" s="11">
         <f>VLOOKUP(D101,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>182000000</v>
+        <v>182000</v>
       </c>
       <c r="H101" s="11">
         <f>VLOOKUP(D101,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>140000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4704,19 +4752,19 @@
       </c>
       <c r="E102" s="11">
         <f>VLOOKUP(D102,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
       <c r="F102" s="11">
         <f>VLOOKUP(D102,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>245000000</v>
+        <v>245000</v>
       </c>
       <c r="G102" s="11">
         <f>VLOOKUP(D102,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>182000000</v>
+        <v>182000</v>
       </c>
       <c r="H102" s="11">
         <f>VLOOKUP(D102,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>140000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4734,19 +4782,19 @@
       </c>
       <c r="E103" s="11">
         <f>VLOOKUP(D103,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>550000000</v>
+        <v>550000</v>
       </c>
       <c r="F103" s="11">
         <f>VLOOKUP(D103,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>193000000</v>
+        <v>193000</v>
       </c>
       <c r="G103" s="11">
         <f>VLOOKUP(D103,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>143000000</v>
+        <v>143000</v>
       </c>
       <c r="H103" s="11">
         <f>VLOOKUP(D103,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>110000000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4764,19 +4812,19 @@
       </c>
       <c r="E104" s="11">
         <f>VLOOKUP(D104,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>550000000</v>
+        <v>550000</v>
       </c>
       <c r="F104" s="11">
         <f>VLOOKUP(D104,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>193000000</v>
+        <v>193000</v>
       </c>
       <c r="G104" s="11">
         <f>VLOOKUP(D104,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>143000000</v>
+        <v>143000</v>
       </c>
       <c r="H104" s="11">
         <f>VLOOKUP(D104,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>110000000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4796,15 +4844,15 @@
       </c>
       <c r="F105" s="11">
         <f>VLOOKUP(D105,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G105" s="11">
         <f>VLOOKUP(D105,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H105" s="11">
         <f>VLOOKUP(D105,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4824,15 +4872,15 @@
       </c>
       <c r="F106" s="11">
         <f>VLOOKUP(D106,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G106" s="11">
         <f>VLOOKUP(D106,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H106" s="11">
         <f>VLOOKUP(D106,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4852,15 +4900,15 @@
       </c>
       <c r="F107" s="11">
         <f>VLOOKUP(D107,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G107" s="11">
         <f>VLOOKUP(D107,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H107" s="11">
         <f>VLOOKUP(D107,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4876,19 +4924,19 @@
       </c>
       <c r="E108" s="11">
         <f>VLOOKUP(D108,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F108" s="11">
         <f>VLOOKUP(D108,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G108" s="11">
         <f>VLOOKUP(D108,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H108" s="11">
         <f>VLOOKUP(D108,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4904,19 +4952,19 @@
       </c>
       <c r="E109" s="11">
         <f>VLOOKUP(D109,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
       <c r="F109" s="11">
         <f>VLOOKUP(D109,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>245000000</v>
+        <v>245000</v>
       </c>
       <c r="G109" s="11">
         <f>VLOOKUP(D109,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>182000000</v>
+        <v>182000</v>
       </c>
       <c r="H109" s="11">
         <f>VLOOKUP(D109,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>140000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4936,15 +4984,15 @@
       </c>
       <c r="F110" s="11">
         <f>VLOOKUP(D110,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>455000000</v>
+        <v>455000</v>
       </c>
       <c r="G110" s="11">
         <f>VLOOKUP(D110,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>338000000</v>
+        <v>338000</v>
       </c>
       <c r="H110" s="11">
         <f>VLOOKUP(D110,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>260000000</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4964,15 +5012,15 @@
       </c>
       <c r="F111" s="11">
         <f>VLOOKUP(D111,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>385000000</v>
+        <v>385000</v>
       </c>
       <c r="G111" s="11">
         <f>VLOOKUP(D111,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>286000000</v>
+        <v>286000</v>
       </c>
       <c r="H111" s="11">
         <f>VLOOKUP(D111,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>220000000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -4988,19 +5036,19 @@
       </c>
       <c r="E112" s="11">
         <f>VLOOKUP(D112,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>900000000</v>
+        <v>900000</v>
       </c>
       <c r="F112" s="11">
         <f>VLOOKUP(D112,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>315000000</v>
+        <v>315000</v>
       </c>
       <c r="G112" s="11">
         <f>VLOOKUP(D112,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>234000000</v>
+        <v>234000</v>
       </c>
       <c r="H112" s="11">
         <f>VLOOKUP(D112,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>180000000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5016,19 +5064,19 @@
       </c>
       <c r="E113" s="11">
         <f>VLOOKUP(D113,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>700000000</v>
+        <v>700000</v>
       </c>
       <c r="F113" s="11">
         <f>VLOOKUP(D113,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>245000000</v>
+        <v>245000</v>
       </c>
       <c r="G113" s="11">
         <f>VLOOKUP(D113,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>182000000</v>
+        <v>182000</v>
       </c>
       <c r="H113" s="11">
         <f>VLOOKUP(D113,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>140000000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5044,19 +5092,19 @@
       </c>
       <c r="E114" s="11">
         <f>VLOOKUP(D114,'B1.1 KHE SANH'!$A$2:$E$17,2,0)*1000000</f>
-        <v>550000000</v>
+        <v>550000</v>
       </c>
       <c r="F114" s="11">
         <f>VLOOKUP(D114,'B1.1 KHE SANH'!$A$2:$E$17,3,0)*1000000</f>
-        <v>193000000</v>
+        <v>193000</v>
       </c>
       <c r="G114" s="11">
         <f>VLOOKUP(D114,'B1.1 KHE SANH'!$A$2:$E$17,4,0)*1000000</f>
-        <v>143000000</v>
+        <v>143000</v>
       </c>
       <c r="H114" s="11">
         <f>VLOOKUP(D114,'B1.1 KHE SANH'!$A$2:$E$17,5,0)*1000000</f>
-        <v>110000000</v>
+        <v>110000</v>
       </c>
     </row>
   </sheetData>
@@ -5069,7 +5117,7 @@
   <dimension ref="A1:H107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5404,7 +5452,7 @@
       </c>
       <c r="H11" s="11">
         <f>VLOOKUP(D11,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>860000000</v>
+        <v>860000</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5464,7 +5512,7 @@
       </c>
       <c r="H13" s="11">
         <f>VLOOKUP(D13,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>860000000</v>
+        <v>860000</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5486,15 +5534,15 @@
       </c>
       <c r="F14" s="11">
         <f>VLOOKUP(D14,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>770000000</v>
+        <v>770000</v>
       </c>
       <c r="G14" s="11">
         <f>VLOOKUP(D14,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>572000000</v>
+        <v>572000</v>
       </c>
       <c r="H14" s="11">
         <f>VLOOKUP(D14,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>440000000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5520,11 +5568,11 @@
       </c>
       <c r="G15" s="11">
         <f>VLOOKUP(D15,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>858000000</v>
+        <v>858000</v>
       </c>
       <c r="H15" s="11">
         <f>VLOOKUP(D15,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>660000000</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5546,15 +5594,15 @@
       </c>
       <c r="F16" s="11">
         <f>VLOOKUP(D16,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>945000000</v>
+        <v>945000</v>
       </c>
       <c r="G16" s="11">
         <f>VLOOKUP(D16,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>702000000</v>
+        <v>702000</v>
       </c>
       <c r="H16" s="11">
         <f>VLOOKUP(D16,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>540000000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5576,15 +5624,15 @@
       </c>
       <c r="F17" s="11">
         <f>VLOOKUP(D17,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>945000000</v>
+        <v>945000</v>
       </c>
       <c r="G17" s="11">
         <f>VLOOKUP(D17,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>702000000</v>
+        <v>702000</v>
       </c>
       <c r="H17" s="11">
         <f>VLOOKUP(D17,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>540000000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5606,15 +5654,15 @@
       </c>
       <c r="F18" s="11">
         <f>VLOOKUP(D18,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G18" s="11">
         <f>VLOOKUP(D18,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H18" s="11">
         <f>VLOOKUP(D18,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5636,15 +5684,15 @@
       </c>
       <c r="F19" s="11">
         <f>VLOOKUP(D19,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>770000000</v>
+        <v>770000</v>
       </c>
       <c r="G19" s="11">
         <f>VLOOKUP(D19,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>572000000</v>
+        <v>572000</v>
       </c>
       <c r="H19" s="11">
         <f>VLOOKUP(D19,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>440000000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5666,15 +5714,15 @@
       </c>
       <c r="F20" s="11">
         <f>VLOOKUP(D20,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>770000000</v>
+        <v>770000</v>
       </c>
       <c r="G20" s="11">
         <f>VLOOKUP(D20,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>572000000</v>
+        <v>572000</v>
       </c>
       <c r="H20" s="11">
         <f>VLOOKUP(D20,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>440000000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5696,15 +5744,15 @@
       </c>
       <c r="F21" s="11">
         <f>VLOOKUP(D21,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
       <c r="G21" s="11">
         <f>VLOOKUP(D21,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>312000000</v>
+        <v>312000</v>
       </c>
       <c r="H21" s="11">
         <f>VLOOKUP(D21,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>240000000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5726,15 +5774,15 @@
       </c>
       <c r="F22" s="11">
         <f>VLOOKUP(D22,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>770000000</v>
+        <v>770000</v>
       </c>
       <c r="G22" s="11">
         <f>VLOOKUP(D22,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>572000000</v>
+        <v>572000</v>
       </c>
       <c r="H22" s="11">
         <f>VLOOKUP(D22,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>440000000</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5756,15 +5804,15 @@
       </c>
       <c r="F23" s="11">
         <f>VLOOKUP(D23,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
       <c r="G23" s="11">
         <f>VLOOKUP(D23,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>312000000</v>
+        <v>312000</v>
       </c>
       <c r="H23" s="11">
         <f>VLOOKUP(D23,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>240000000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5786,15 +5834,15 @@
       </c>
       <c r="F24" s="11">
         <f>VLOOKUP(D24,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G24" s="11">
         <f>VLOOKUP(D24,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H24" s="11">
         <f>VLOOKUP(D24,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5816,15 +5864,15 @@
       </c>
       <c r="F25" s="11">
         <f>VLOOKUP(D25,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G25" s="11">
         <f>VLOOKUP(D25,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H25" s="11">
         <f>VLOOKUP(D25,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5846,15 +5894,15 @@
       </c>
       <c r="F26" s="11">
         <f>VLOOKUP(D26,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G26" s="11">
         <f>VLOOKUP(D26,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H26" s="11">
         <f>VLOOKUP(D26,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5876,15 +5924,15 @@
       </c>
       <c r="F27" s="11">
         <f>VLOOKUP(D27,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G27" s="11">
         <f>VLOOKUP(D27,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H27" s="11">
         <f>VLOOKUP(D27,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5906,15 +5954,15 @@
       </c>
       <c r="F28" s="11">
         <f>VLOOKUP(D28,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G28" s="11">
         <f>VLOOKUP(D28,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H28" s="11">
         <f>VLOOKUP(D28,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5936,15 +5984,15 @@
       </c>
       <c r="F29" s="11">
         <f>VLOOKUP(D29,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G29" s="11">
         <f>VLOOKUP(D29,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H29" s="11">
         <f>VLOOKUP(D29,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5966,15 +6014,15 @@
       </c>
       <c r="F30" s="11">
         <f>VLOOKUP(D30,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G30" s="11">
         <f>VLOOKUP(D30,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H30" s="11">
         <f>VLOOKUP(D30,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5996,15 +6044,15 @@
       </c>
       <c r="F31" s="11">
         <f>VLOOKUP(D31,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G31" s="11">
         <f>VLOOKUP(D31,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H31" s="11">
         <f>VLOOKUP(D31,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6026,15 +6074,15 @@
       </c>
       <c r="F32" s="11">
         <f>VLOOKUP(D32,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G32" s="11">
         <f>VLOOKUP(D32,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H32" s="11">
         <f>VLOOKUP(D32,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6056,15 +6104,15 @@
       </c>
       <c r="F33" s="11">
         <f>VLOOKUP(D33,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G33" s="11">
         <f>VLOOKUP(D33,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H33" s="11">
         <f>VLOOKUP(D33,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6086,15 +6134,15 @@
       </c>
       <c r="F34" s="11">
         <f>VLOOKUP(D34,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
       <c r="G34" s="11">
         <f>VLOOKUP(D34,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>312000000</v>
+        <v>312000</v>
       </c>
       <c r="H34" s="11">
         <f>VLOOKUP(D34,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>240000000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6116,15 +6164,15 @@
       </c>
       <c r="F35" s="11">
         <f>VLOOKUP(D35,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G35" s="11">
         <f>VLOOKUP(D35,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H35" s="11">
         <f>VLOOKUP(D35,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6146,15 +6194,15 @@
       </c>
       <c r="F36" s="11">
         <f>VLOOKUP(D36,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>420000000</v>
+        <v>420000</v>
       </c>
       <c r="G36" s="11">
         <f>VLOOKUP(D36,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>312000000</v>
+        <v>312000</v>
       </c>
       <c r="H36" s="11">
         <f>VLOOKUP(D36,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>240000000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6176,15 +6224,15 @@
       </c>
       <c r="F37" s="11">
         <f>VLOOKUP(D37,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G37" s="11">
         <f>VLOOKUP(D37,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H37" s="11">
         <f>VLOOKUP(D37,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6206,15 +6254,15 @@
       </c>
       <c r="F38" s="11">
         <f>VLOOKUP(D38,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G38" s="11">
         <f>VLOOKUP(D38,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H38" s="11">
         <f>VLOOKUP(D38,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6236,15 +6284,15 @@
       </c>
       <c r="F39" s="11">
         <f>VLOOKUP(D39,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G39" s="11">
         <f>VLOOKUP(D39,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H39" s="11">
         <f>VLOOKUP(D39,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6262,19 +6310,19 @@
       </c>
       <c r="E40" s="11">
         <f>VLOOKUP(D40,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F40" s="11">
         <f>VLOOKUP(D40,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G40" s="11">
         <f>VLOOKUP(D40,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H40" s="11">
         <f>VLOOKUP(D40,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6296,15 +6344,15 @@
       </c>
       <c r="F41" s="11">
         <f>VLOOKUP(D41,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G41" s="11">
         <f>VLOOKUP(D41,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H41" s="11">
         <f>VLOOKUP(D41,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6322,19 +6370,19 @@
       </c>
       <c r="E42" s="11">
         <f>VLOOKUP(D42,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F42" s="11">
         <f>VLOOKUP(D42,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G42" s="11">
         <f>VLOOKUP(D42,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H42" s="11">
         <f>VLOOKUP(D42,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6356,15 +6404,15 @@
       </c>
       <c r="F43" s="11">
         <f>VLOOKUP(D43,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G43" s="11">
         <f>VLOOKUP(D43,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H43" s="11">
         <f>VLOOKUP(D43,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6382,19 +6430,19 @@
       </c>
       <c r="E44" s="11">
         <f>VLOOKUP(D44,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F44" s="11">
         <f>VLOOKUP(D44,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G44" s="11">
         <f>VLOOKUP(D44,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H44" s="11">
         <f>VLOOKUP(D44,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6416,15 +6464,15 @@
       </c>
       <c r="F45" s="11">
         <f>VLOOKUP(D45,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G45" s="11">
         <f>VLOOKUP(D45,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H45" s="11">
         <f>VLOOKUP(D45,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6446,15 +6494,15 @@
       </c>
       <c r="F46" s="11">
         <f>VLOOKUP(D46,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G46" s="11">
         <f>VLOOKUP(D46,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H46" s="11">
         <f>VLOOKUP(D46,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6476,15 +6524,15 @@
       </c>
       <c r="F47" s="11">
         <f>VLOOKUP(D47,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G47" s="11">
         <f>VLOOKUP(D47,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H47" s="11">
         <f>VLOOKUP(D47,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6506,15 +6554,15 @@
       </c>
       <c r="F48" s="11">
         <f>VLOOKUP(D48,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G48" s="11">
         <f>VLOOKUP(D48,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H48" s="11">
         <f>VLOOKUP(D48,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6536,15 +6584,15 @@
       </c>
       <c r="F49" s="11">
         <f>VLOOKUP(D49,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G49" s="11">
         <f>VLOOKUP(D49,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H49" s="11">
         <f>VLOOKUP(D49,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6566,15 +6614,15 @@
       </c>
       <c r="F50" s="11">
         <f>VLOOKUP(D50,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G50" s="11">
         <f>VLOOKUP(D50,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H50" s="11">
         <f>VLOOKUP(D50,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6592,19 +6640,19 @@
       </c>
       <c r="E51" s="11">
         <f>VLOOKUP(D51,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F51" s="11">
         <f>VLOOKUP(D51,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G51" s="11">
         <f>VLOOKUP(D51,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H51" s="11">
         <f>VLOOKUP(D51,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6622,19 +6670,19 @@
       </c>
       <c r="E52" s="11">
         <f>VLOOKUP(D52,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F52" s="11">
         <f>VLOOKUP(D52,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G52" s="11">
         <f>VLOOKUP(D52,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H52" s="11">
         <f>VLOOKUP(D52,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6652,19 +6700,19 @@
       </c>
       <c r="E53" s="11">
         <f>VLOOKUP(D53,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F53" s="11">
         <f>VLOOKUP(D53,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G53" s="11">
         <f>VLOOKUP(D53,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H53" s="11">
         <f>VLOOKUP(D53,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6682,19 +6730,19 @@
       </c>
       <c r="E54" s="11">
         <f>VLOOKUP(D54,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F54" s="11">
         <f>VLOOKUP(D54,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G54" s="11">
         <f>VLOOKUP(D54,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H54" s="11">
         <f>VLOOKUP(D54,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6712,19 +6760,19 @@
       </c>
       <c r="E55" s="11">
         <f>VLOOKUP(D55,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F55" s="11">
         <f>VLOOKUP(D55,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G55" s="11">
         <f>VLOOKUP(D55,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H55" s="11">
         <f>VLOOKUP(D55,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6742,19 +6790,19 @@
       </c>
       <c r="E56" s="11">
         <f>VLOOKUP(D56,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F56" s="11">
         <f>VLOOKUP(D56,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G56" s="11">
         <f>VLOOKUP(D56,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H56" s="11">
         <f>VLOOKUP(D56,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6772,19 +6820,19 @@
       </c>
       <c r="E57" s="11">
         <f>VLOOKUP(D57,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F57" s="11">
         <f>VLOOKUP(D57,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G57" s="11">
         <f>VLOOKUP(D57,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H57" s="11">
         <f>VLOOKUP(D57,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6802,19 +6850,19 @@
       </c>
       <c r="E58" s="11">
         <f>VLOOKUP(D58,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F58" s="11">
         <f>VLOOKUP(D58,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G58" s="11">
         <f>VLOOKUP(D58,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H58" s="11">
         <f>VLOOKUP(D58,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6832,19 +6880,19 @@
       </c>
       <c r="E59" s="11">
         <f>VLOOKUP(D59,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F59" s="11">
         <f>VLOOKUP(D59,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G59" s="11">
         <f>VLOOKUP(D59,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H59" s="11">
         <f>VLOOKUP(D59,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6862,19 +6910,19 @@
       </c>
       <c r="E60" s="11">
         <f>VLOOKUP(D60,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F60" s="11">
         <f>VLOOKUP(D60,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G60" s="11">
         <f>VLOOKUP(D60,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H60" s="11">
         <f>VLOOKUP(D60,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6892,19 +6940,19 @@
       </c>
       <c r="E61" s="11">
         <f>VLOOKUP(D61,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F61" s="11">
         <f>VLOOKUP(D61,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G61" s="11">
         <f>VLOOKUP(D61,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H61" s="11">
         <f>VLOOKUP(D61,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6922,19 +6970,19 @@
       </c>
       <c r="E62" s="11">
         <f>VLOOKUP(D62,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F62" s="11">
         <f>VLOOKUP(D62,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G62" s="11">
         <f>VLOOKUP(D62,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H62" s="11">
         <f>VLOOKUP(D62,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6952,19 +7000,19 @@
       </c>
       <c r="E63" s="11">
         <f>VLOOKUP(D63,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F63" s="11">
         <f>VLOOKUP(D63,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G63" s="11">
         <f>VLOOKUP(D63,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H63" s="11">
         <f>VLOOKUP(D63,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -6982,19 +7030,19 @@
       </c>
       <c r="E64" s="11">
         <f>VLOOKUP(D64,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F64" s="11">
         <f>VLOOKUP(D64,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G64" s="11">
         <f>VLOOKUP(D64,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H64" s="11">
         <f>VLOOKUP(D64,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7012,19 +7060,19 @@
       </c>
       <c r="E65" s="11">
         <f>VLOOKUP(D65,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F65" s="11">
         <f>VLOOKUP(D65,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G65" s="11">
         <f>VLOOKUP(D65,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H65" s="11">
         <f>VLOOKUP(D65,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7042,19 +7090,19 @@
       </c>
       <c r="E66" s="11">
         <f>VLOOKUP(D66,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F66" s="11">
         <f>VLOOKUP(D66,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G66" s="11">
         <f>VLOOKUP(D66,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H66" s="11">
         <f>VLOOKUP(D66,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7072,19 +7120,19 @@
       </c>
       <c r="E67" s="11">
         <f>VLOOKUP(D67,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F67" s="11">
         <f>VLOOKUP(D67,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G67" s="11">
         <f>VLOOKUP(D67,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H67" s="11">
         <f>VLOOKUP(D67,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7102,19 +7150,19 @@
       </c>
       <c r="E68" s="11">
         <f>VLOOKUP(D68,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F68" s="11">
         <f>VLOOKUP(D68,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G68" s="11">
         <f>VLOOKUP(D68,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H68" s="11">
         <f>VLOOKUP(D68,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7132,19 +7180,19 @@
       </c>
       <c r="E69" s="11">
         <f>VLOOKUP(D69,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F69" s="11">
         <f>VLOOKUP(D69,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G69" s="11">
         <f>VLOOKUP(D69,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H69" s="11">
         <f>VLOOKUP(D69,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7162,19 +7210,19 @@
       </c>
       <c r="E70" s="11">
         <f>VLOOKUP(D70,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F70" s="11">
         <f>VLOOKUP(D70,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G70" s="11">
         <f>VLOOKUP(D70,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H70" s="11">
         <f>VLOOKUP(D70,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7192,19 +7240,19 @@
       </c>
       <c r="E71" s="11">
         <f>VLOOKUP(D71,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F71" s="11">
         <f>VLOOKUP(D71,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G71" s="11">
         <f>VLOOKUP(D71,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H71" s="11">
         <f>VLOOKUP(D71,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7222,19 +7270,19 @@
       </c>
       <c r="E72" s="11">
         <f>VLOOKUP(D72,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F72" s="11">
         <f>VLOOKUP(D72,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G72" s="11">
         <f>VLOOKUP(D72,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H72" s="11">
         <f>VLOOKUP(D72,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7252,19 +7300,19 @@
       </c>
       <c r="E73" s="11">
         <f>VLOOKUP(D73,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>530000000</v>
+        <v>530000</v>
       </c>
       <c r="F73" s="11">
         <f>VLOOKUP(D73,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>186000000</v>
+        <v>186000</v>
       </c>
       <c r="G73" s="11">
         <f>VLOOKUP(D73,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>138000000</v>
+        <v>138000</v>
       </c>
       <c r="H73" s="11">
         <f>VLOOKUP(D73,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>106000000</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7282,19 +7330,19 @@
       </c>
       <c r="E74" s="11">
         <f>VLOOKUP(D74,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>530000000</v>
+        <v>530000</v>
       </c>
       <c r="F74" s="11">
         <f>VLOOKUP(D74,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>186000000</v>
+        <v>186000</v>
       </c>
       <c r="G74" s="11">
         <f>VLOOKUP(D74,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>138000000</v>
+        <v>138000</v>
       </c>
       <c r="H74" s="11">
         <f>VLOOKUP(D74,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>106000000</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7312,19 +7360,19 @@
       </c>
       <c r="E75" s="11">
         <f>VLOOKUP(D75,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>530000000</v>
+        <v>530000</v>
       </c>
       <c r="F75" s="11">
         <f>VLOOKUP(D75,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>186000000</v>
+        <v>186000</v>
       </c>
       <c r="G75" s="11">
         <f>VLOOKUP(D75,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>138000000</v>
+        <v>138000</v>
       </c>
       <c r="H75" s="11">
         <f>VLOOKUP(D75,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>106000000</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7342,19 +7390,19 @@
       </c>
       <c r="E76" s="11">
         <f>VLOOKUP(D76,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F76" s="11">
         <f>VLOOKUP(D76,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G76" s="11">
         <f>VLOOKUP(D76,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H76" s="11">
         <f>VLOOKUP(D76,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7372,19 +7420,19 @@
       </c>
       <c r="E77" s="11">
         <f>VLOOKUP(D77,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F77" s="11">
         <f>VLOOKUP(D77,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G77" s="11">
         <f>VLOOKUP(D77,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H77" s="11">
         <f>VLOOKUP(D77,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7402,19 +7450,19 @@
       </c>
       <c r="E78" s="11">
         <f>VLOOKUP(D78,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F78" s="11">
         <f>VLOOKUP(D78,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G78" s="11">
         <f>VLOOKUP(D78,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H78" s="11">
         <f>VLOOKUP(D78,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7432,19 +7480,19 @@
       </c>
       <c r="E79" s="11">
         <f>VLOOKUP(D79,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F79" s="11">
         <f>VLOOKUP(D79,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G79" s="11">
         <f>VLOOKUP(D79,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H79" s="11">
         <f>VLOOKUP(D79,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7466,15 +7514,15 @@
       </c>
       <c r="F80" s="11">
         <f>VLOOKUP(D80,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G80" s="11">
         <f>VLOOKUP(D80,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H80" s="11">
         <f>VLOOKUP(D80,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7496,15 +7544,15 @@
       </c>
       <c r="F81" s="11">
         <f>VLOOKUP(D81,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G81" s="11">
         <f>VLOOKUP(D81,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H81" s="11">
         <f>VLOOKUP(D81,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7526,15 +7574,15 @@
       </c>
       <c r="F82" s="11">
         <f>VLOOKUP(D82,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G82" s="11">
         <f>VLOOKUP(D82,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H82" s="11">
         <f>VLOOKUP(D82,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7556,15 +7604,15 @@
       </c>
       <c r="F83" s="11">
         <f>VLOOKUP(D83,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G83" s="11">
         <f>VLOOKUP(D83,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H83" s="11">
         <f>VLOOKUP(D83,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7586,15 +7634,15 @@
       </c>
       <c r="F84" s="11">
         <f>VLOOKUP(D84,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G84" s="11">
         <f>VLOOKUP(D84,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H84" s="11">
         <f>VLOOKUP(D84,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7612,19 +7660,19 @@
       </c>
       <c r="E85" s="11">
         <f>VLOOKUP(D85,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F85" s="11">
         <f>VLOOKUP(D85,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G85" s="11">
         <f>VLOOKUP(D85,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H85" s="11">
         <f>VLOOKUP(D85,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7642,19 +7690,19 @@
       </c>
       <c r="E86" s="11">
         <f>VLOOKUP(D86,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F86" s="11">
         <f>VLOOKUP(D86,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G86" s="11">
         <f>VLOOKUP(D86,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H86" s="11">
         <f>VLOOKUP(D86,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7672,19 +7720,19 @@
       </c>
       <c r="E87" s="11">
         <f>VLOOKUP(D87,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F87" s="11">
         <f>VLOOKUP(D87,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G87" s="11">
         <f>VLOOKUP(D87,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H87" s="11">
         <f>VLOOKUP(D87,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7706,15 +7754,15 @@
       </c>
       <c r="F88" s="11">
         <f>VLOOKUP(D88,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G88" s="11">
         <f>VLOOKUP(D88,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H88" s="11">
         <f>VLOOKUP(D88,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7736,15 +7784,15 @@
       </c>
       <c r="F89" s="11">
         <f>VLOOKUP(D89,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G89" s="11">
         <f>VLOOKUP(D89,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H89" s="11">
         <f>VLOOKUP(D89,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7762,19 +7810,19 @@
       </c>
       <c r="E90" s="11">
         <f>VLOOKUP(D90,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F90" s="11">
         <f>VLOOKUP(D90,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G90" s="11">
         <f>VLOOKUP(D90,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H90" s="11">
         <f>VLOOKUP(D90,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7792,19 +7840,19 @@
       </c>
       <c r="E91" s="11">
         <f>VLOOKUP(D91,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F91" s="11">
         <f>VLOOKUP(D91,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G91" s="11">
         <f>VLOOKUP(D91,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H91" s="11">
         <f>VLOOKUP(D91,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7822,19 +7870,19 @@
       </c>
       <c r="E92" s="11">
         <f>VLOOKUP(D92,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F92" s="11">
         <f>VLOOKUP(D92,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G92" s="11">
         <f>VLOOKUP(D92,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H92" s="11">
         <f>VLOOKUP(D92,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7852,19 +7900,19 @@
       </c>
       <c r="E93" s="11">
         <f>VLOOKUP(D93,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F93" s="11">
         <f>VLOOKUP(D93,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G93" s="11">
         <f>VLOOKUP(D93,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H93" s="11">
         <f>VLOOKUP(D93,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7886,15 +7934,15 @@
       </c>
       <c r="F94" s="11">
         <f>VLOOKUP(D94,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G94" s="11">
         <f>VLOOKUP(D94,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H94" s="11">
         <f>VLOOKUP(D94,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7912,19 +7960,19 @@
       </c>
       <c r="E95" s="11">
         <f>VLOOKUP(D95,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F95" s="11">
         <f>VLOOKUP(D95,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G95" s="11">
         <f>VLOOKUP(D95,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H95" s="11">
         <f>VLOOKUP(D95,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7942,19 +7990,19 @@
       </c>
       <c r="E96" s="11">
         <f>VLOOKUP(D96,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F96" s="11">
         <f>VLOOKUP(D96,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G96" s="11">
         <f>VLOOKUP(D96,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H96" s="11">
         <f>VLOOKUP(D96,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7972,19 +8020,19 @@
       </c>
       <c r="E97" s="11">
         <f>VLOOKUP(D97,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F97" s="11">
         <f>VLOOKUP(D97,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G97" s="11">
         <f>VLOOKUP(D97,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H97" s="11">
         <f>VLOOKUP(D97,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8004,15 +8052,15 @@
       </c>
       <c r="F98" s="11">
         <f>VLOOKUP(D98,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>595000000</v>
+        <v>595000</v>
       </c>
       <c r="G98" s="11">
         <f>VLOOKUP(D98,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>442000000</v>
+        <v>442000</v>
       </c>
       <c r="H98" s="11">
         <f>VLOOKUP(D98,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>340000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8032,15 +8080,15 @@
       </c>
       <c r="F99" s="11">
         <f>VLOOKUP(D99,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G99" s="11">
         <f>VLOOKUP(D99,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H99" s="11">
         <f>VLOOKUP(D99,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8060,15 +8108,15 @@
       </c>
       <c r="F100" s="11">
         <f>VLOOKUP(D100,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G100" s="11">
         <f>VLOOKUP(D100,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H100" s="11">
         <f>VLOOKUP(D100,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8084,19 +8132,19 @@
       </c>
       <c r="E101" s="11">
         <f>VLOOKUP(D101,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F101" s="11">
         <f>VLOOKUP(D101,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G101" s="11">
         <f>VLOOKUP(D101,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H101" s="11">
         <f>VLOOKUP(D101,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8112,19 +8160,19 @@
       </c>
       <c r="E102" s="11">
         <f>VLOOKUP(D102,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F102" s="11">
         <f>VLOOKUP(D102,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G102" s="11">
         <f>VLOOKUP(D102,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H102" s="11">
         <f>VLOOKUP(D102,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8144,15 +8192,15 @@
       </c>
       <c r="F103" s="11">
         <f>VLOOKUP(D103,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>490000000</v>
+        <v>490000</v>
       </c>
       <c r="G103" s="11">
         <f>VLOOKUP(D103,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>364000000</v>
+        <v>364000</v>
       </c>
       <c r="H103" s="11">
         <f>VLOOKUP(D103,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>280000000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8172,15 +8220,15 @@
       </c>
       <c r="F104" s="11">
         <f>VLOOKUP(D104,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>368000000</v>
+        <v>368000</v>
       </c>
       <c r="G104" s="11">
         <f>VLOOKUP(D104,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>273000000</v>
+        <v>273000</v>
       </c>
       <c r="H104" s="11">
         <f>VLOOKUP(D104,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>210000000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8196,19 +8244,19 @@
       </c>
       <c r="E105" s="11">
         <f>VLOOKUP(D105,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>850000000</v>
+        <v>850000</v>
       </c>
       <c r="F105" s="11">
         <f>VLOOKUP(D105,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>298000000</v>
+        <v>298000</v>
       </c>
       <c r="G105" s="11">
         <f>VLOOKUP(D105,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>221000000</v>
+        <v>221000</v>
       </c>
       <c r="H105" s="11">
         <f>VLOOKUP(D105,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>170000000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8224,19 +8272,19 @@
       </c>
       <c r="E106" s="11">
         <f>VLOOKUP(D106,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>650000000</v>
+        <v>650000</v>
       </c>
       <c r="F106" s="11">
         <f>VLOOKUP(D106,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>228000000</v>
+        <v>228000</v>
       </c>
       <c r="G106" s="11">
         <f>VLOOKUP(D106,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>169000000</v>
+        <v>169000</v>
       </c>
       <c r="H106" s="11">
         <f>VLOOKUP(D106,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>130000000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8252,19 +8300,19 @@
       </c>
       <c r="E107" s="11">
         <f>VLOOKUP(D107,'B1.2 LAO BAO'!$A$2:$E$18,2,0)*1000000</f>
-        <v>530000000</v>
+        <v>530000</v>
       </c>
       <c r="F107" s="11">
         <f>VLOOKUP(D107,'B1.2 LAO BAO'!$A$2:$E$18,3,0)*1000000</f>
-        <v>186000000</v>
+        <v>186000</v>
       </c>
       <c r="G107" s="11">
         <f>VLOOKUP(D107,'B1.2 LAO BAO'!$A$2:$E$18,4,0)*1000000</f>
-        <v>138000000</v>
+        <v>138000</v>
       </c>
       <c r="H107" s="11">
         <f>VLOOKUP(D107,'B1.2 LAO BAO'!$A$2:$E$18,5,0)*1000000</f>
-        <v>106000000</v>
+        <v>106000</v>
       </c>
     </row>
   </sheetData>
@@ -8277,7 +8325,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8398,7 +8446,7 @@
         <v>1.0920000000000001</v>
       </c>
       <c r="E7" s="4">
-        <v>840</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8412,10 +8460,10 @@
         <v>1.2250000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>910</v>
+        <v>0.91</v>
       </c>
       <c r="E8" s="4">
-        <v>700</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8426,13 +8474,13 @@
         <v>2.8</v>
       </c>
       <c r="C9" s="4">
-        <v>980</v>
+        <v>0.98</v>
       </c>
       <c r="D9" s="4">
-        <v>728</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="E9" s="4">
-        <v>560</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8443,13 +8491,13 @@
         <v>2.5</v>
       </c>
       <c r="C10" s="4">
-        <v>875</v>
+        <v>0.875</v>
       </c>
       <c r="D10" s="4">
-        <v>650</v>
+        <v>0.65</v>
       </c>
       <c r="E10" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8460,13 +8508,13 @@
         <v>2.1</v>
       </c>
       <c r="C11" s="4">
-        <v>735</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="D11" s="4">
-        <v>546</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="E11" s="4">
-        <v>420</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8477,13 +8525,13 @@
         <v>1.7</v>
       </c>
       <c r="C12" s="4">
-        <v>595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D12" s="4">
-        <v>442</v>
+        <v>0.442</v>
       </c>
       <c r="E12" s="4">
-        <v>340</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8494,13 +8542,13 @@
         <v>1.3</v>
       </c>
       <c r="C13" s="4">
-        <v>455</v>
+        <v>0.45500000000000002</v>
       </c>
       <c r="D13" s="4">
-        <v>338</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="E13" s="4">
-        <v>260</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8511,13 +8559,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C14" s="4">
-        <v>385</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="D14" s="4">
-        <v>286</v>
+        <v>0.28599999999999998</v>
       </c>
       <c r="E14" s="4">
-        <v>220</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8525,16 +8573,16 @@
         <v>24</v>
       </c>
       <c r="B15" s="4">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="C15" s="4">
-        <v>315</v>
+        <v>0.315</v>
       </c>
       <c r="D15" s="4">
-        <v>234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="E15" s="4">
-        <v>180</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8542,16 +8590,16 @@
         <v>25</v>
       </c>
       <c r="B16" s="4">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="C16" s="4">
-        <v>245</v>
+        <v>0.245</v>
       </c>
       <c r="D16" s="4">
-        <v>182</v>
+        <v>0.182</v>
       </c>
       <c r="E16" s="4">
-        <v>140</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8559,16 +8607,16 @@
         <v>26</v>
       </c>
       <c r="B17" s="4">
-        <v>550</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C17" s="4">
-        <v>193</v>
+        <v>0.193</v>
       </c>
       <c r="D17" s="4">
-        <v>143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E17" s="4">
-        <v>110</v>
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
@@ -8582,7 +8630,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8720,7 +8768,7 @@
         <v>1.1180000000000001</v>
       </c>
       <c r="E8" s="4">
-        <v>860</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8734,10 +8782,10 @@
         <v>1.155</v>
       </c>
       <c r="D9" s="4">
-        <v>858</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="E9" s="4">
-        <v>660</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8748,13 +8796,13 @@
         <v>2.7</v>
       </c>
       <c r="C10" s="4">
-        <v>945</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D10" s="4">
-        <v>702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="E10" s="4">
-        <v>540</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8765,13 +8813,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="4">
-        <v>770</v>
+        <v>0.77</v>
       </c>
       <c r="D11" s="4">
-        <v>572</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="E11" s="4">
-        <v>440</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8782,13 +8830,13 @@
         <v>1.7</v>
       </c>
       <c r="C12" s="4">
-        <v>595</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="D12" s="4">
-        <v>442</v>
+        <v>0.442</v>
       </c>
       <c r="E12" s="4">
-        <v>340</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8799,13 +8847,13 @@
         <v>1.4</v>
       </c>
       <c r="C13" s="4">
-        <v>490</v>
+        <v>0.49</v>
       </c>
       <c r="D13" s="4">
-        <v>364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>280</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8816,13 +8864,13 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="4">
-        <v>420</v>
+        <v>0.42</v>
       </c>
       <c r="D14" s="4">
-        <v>312</v>
+        <v>0.312</v>
       </c>
       <c r="E14" s="4">
-        <v>240</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8833,13 +8881,13 @@
         <v>1.05</v>
       </c>
       <c r="C15" s="4">
-        <v>368</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="D15" s="4">
-        <v>273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="E15" s="4">
-        <v>210</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8847,16 +8895,16 @@
         <v>24</v>
       </c>
       <c r="B16" s="4">
-        <v>850</v>
+        <v>0.85</v>
       </c>
       <c r="C16" s="4">
-        <v>298</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="D16" s="4">
-        <v>221</v>
+        <v>0.221</v>
       </c>
       <c r="E16" s="4">
-        <v>170</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8864,16 +8912,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="4">
-        <v>650</v>
+        <v>0.65</v>
       </c>
       <c r="C17" s="4">
-        <v>228</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>169</v>
+        <v>0.16900000000000001</v>
       </c>
       <c r="E17" s="4">
-        <v>130</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8881,16 +8929,16 @@
         <v>26</v>
       </c>
       <c r="B18" s="4">
-        <v>530</v>
+        <v>0.53</v>
       </c>
       <c r="C18" s="4">
-        <v>186</v>
+        <v>0.186</v>
       </c>
       <c r="D18" s="4">
-        <v>138</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E18" s="4">
-        <v>106</v>
+        <v>0.106</v>
       </c>
     </row>
   </sheetData>
@@ -8900,10 +8948,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B1ACA0-E18B-4E51-B16A-9DC0C160B136}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8945,13 +8993,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>450</v>
+        <v>0.45</v>
       </c>
       <c r="F2" s="4">
-        <v>250</v>
+        <v>0.25</v>
       </c>
       <c r="G2" s="4">
-        <v>100</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8965,16 +9013,16 @@
         <v>1050</v>
       </c>
       <c r="D3" s="4">
-        <v>700</v>
+        <v>0.7</v>
       </c>
       <c r="E3" s="4">
-        <v>315</v>
+        <v>0.315</v>
       </c>
       <c r="F3" s="4">
-        <v>175</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G3" s="4">
-        <v>70</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8985,19 +9033,19 @@
         <v>1040</v>
       </c>
       <c r="C4" s="4">
-        <v>780</v>
+        <v>0.78</v>
       </c>
       <c r="D4" s="4">
-        <v>520</v>
+        <v>0.52</v>
       </c>
       <c r="E4" s="4">
-        <v>234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="F4" s="4">
-        <v>130</v>
+        <v>0.13</v>
       </c>
       <c r="G4" s="4">
-        <v>52</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9008,20 +9056,23 @@
         <v>760</v>
       </c>
       <c r="C5" s="4">
-        <v>570</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D5" s="4">
-        <v>380</v>
+        <v>0.38</v>
       </c>
       <c r="E5" s="4">
-        <v>171</v>
+        <v>0.17100000000000001</v>
       </c>
       <c r="F5" s="4">
-        <v>95</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>38</v>
-      </c>
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9033,7 +9084,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9076,10 +9127,10 @@
         <v>1.4</v>
       </c>
       <c r="F2" s="4">
-        <v>900</v>
+        <v>0.9</v>
       </c>
       <c r="G2" s="4">
-        <v>400</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9091,16 +9142,16 @@
         <v>1.5049999999999999</v>
       </c>
       <c r="D3" s="4">
-        <v>875</v>
+        <v>0.875</v>
       </c>
       <c r="E3" s="4">
-        <v>490</v>
+        <v>0.49</v>
       </c>
       <c r="F3" s="4">
-        <v>315</v>
+        <v>0.315</v>
       </c>
       <c r="G3" s="4">
-        <v>140</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9112,16 +9163,16 @@
         <v>1.1180000000000001</v>
       </c>
       <c r="D4" s="4">
-        <v>650</v>
+        <v>0.65</v>
       </c>
       <c r="E4" s="4">
-        <v>364</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="F4" s="4">
-        <v>234</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="G4" s="4">
-        <v>104</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9130,19 +9181,19 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="4">
-        <v>860</v>
+        <v>0.86</v>
       </c>
       <c r="D5" s="4">
-        <v>500</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="4">
-        <v>280</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F5" s="4">
-        <v>180</v>
+        <v>0.18</v>
       </c>
       <c r="G5" s="4">
-        <v>80</v>
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
